--- a/1-Analyse/Cahiers de Recette/recette_visualiser_temps_et_vitesse_sur_mobile - Copie.xlsx
+++ b/1-Analyse/Cahiers de Recette/recette_visualiser_temps_et_vitesse_sur_mobile - Copie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugog\Desktop\Cours\IR\2ème\Chrono'Luge\1-Analyse\Cahiers de Recette\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugog\Desktop\Cours\IR\2ème\ChronoLuge\1-Analyse\Cahiers de Recette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8396F8F3-B7B3-4EDA-A6C9-C78D77C036D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F589837D-A960-42D9-ADE9-78BB4D45EFEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,14 +626,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,6 +649,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -653,14 +667,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,38 +703,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20 % - Accent2" xfId="3" builtinId="34"/>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:K25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,7 +1002,7 @@
     <col min="2" max="2" width="43.5703125" customWidth="1"/>
     <col min="3" max="3" width="47.140625" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="7" width="33.28515625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
@@ -1012,10 +1012,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="53"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="27" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1024,7 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1104,16 +1104,16 @@
       <c r="K7" s="52"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -1160,16 +1160,16 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="2:11" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
@@ -1184,48 +1184,48 @@
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="2:11" s="19" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -1275,7 +1275,7 @@
       <c r="B18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -1294,44 +1294,44 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
@@ -1356,44 +1356,44 @@
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
@@ -1418,16 +1418,16 @@
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="40"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="2:11" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
@@ -1442,48 +1442,48 @@
       <c r="K28" s="16"/>
     </row>
     <row r="29" spans="2:11" s="19" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="43"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="55"/>
     </row>
     <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="34"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -1508,44 +1508,44 @@
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="40"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="31"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="40"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
@@ -1570,44 +1570,44 @@
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="40"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="40"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="31"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="34"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -1632,19 +1632,52 @@
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="37"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:K7"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="B23:E23"/>
@@ -1661,39 +1694,6 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="G41:K41"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
